--- a/Nucleation Rates/nacl_sims_CNnq6_ion.xlsx
+++ b/Nucleation Rates/nacl_sims_CNnq6_ion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lunna\Documents\LJ_rate\NaCl_2\MLD-SCP_1\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662F5658-28F7-4D51-8E9C-D102DF2929DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D626CF8-AEC1-4258-A119-4A72F5A34F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="27765" windowHeight="14310" xr2:uid="{B499E8B0-ED29-3748-A967-F3B9CB8B7F37}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Simulation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Ntot</t>
   </si>
@@ -47,34 +44,7 @@
     <t>Nstot</t>
   </si>
   <si>
-    <t>b5-100fu-sphere-r12</t>
-  </si>
-  <si>
-    <t>b7-350fu-sphere-r11</t>
-  </si>
-  <si>
-    <t>b7-250fu-sphere-r11</t>
-  </si>
-  <si>
-    <t>b9-350fu-sphere-r7</t>
-  </si>
-  <si>
-    <t>b8-250fu-sphere-r9.5</t>
-  </si>
-  <si>
-    <t>b13.7-100fu-sphere-r6</t>
-  </si>
-  <si>
     <t>Nss</t>
-  </si>
-  <si>
-    <t>b7-400fu-sphere-r13</t>
-  </si>
-  <si>
-    <t>b9-100fu-sphere-r8</t>
-  </si>
-  <si>
-    <t>Nss_in</t>
   </si>
   <si>
     <t>Label</t>
@@ -87,19 +57,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,21 +86,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -453,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D2B202-F999-8043-A080-FECAB6BA4799}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
-      <selection sqref="A1:G9"/>
+      <selection activeCell="B1" sqref="B1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -466,227 +424,173 @@
     <col min="5" max="5" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
+      <c r="B2" s="1">
+        <v>616</v>
       </c>
       <c r="C2" s="2">
-        <v>616</v>
-      </c>
-      <c r="D2" s="4">
         <v>276</v>
       </c>
-      <c r="E2" s="4">
+      <c r="D2" s="2">
         <v>88</v>
       </c>
-      <c r="F2" s="4">
-        <v>64</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="E2" s="3">
         <f>5.23*10^8</f>
         <v>523000000.00000006</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
+      <c r="B3" s="1">
+        <v>405</v>
       </c>
       <c r="C3" s="2">
-        <v>405</v>
-      </c>
-      <c r="D3" s="4">
         <v>228</v>
       </c>
-      <c r="E3" s="4">
+      <c r="D3" s="2">
         <v>114</v>
       </c>
-      <c r="F3" s="4">
-        <v>88</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="E3" s="3">
         <f>5.87*10^8</f>
         <v>587000000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
+      <c r="B4" s="1">
+        <v>1734</v>
       </c>
       <c r="C4" s="2">
-        <v>1734</v>
-      </c>
-      <c r="D4" s="4">
         <v>658</v>
       </c>
-      <c r="E4" s="4">
+      <c r="D4" s="2">
         <v>242</v>
       </c>
-      <c r="F4" s="4">
-        <v>200</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="E4" s="3">
         <f>4.5*10^8</f>
         <v>450000000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
+      <c r="B5" s="1">
+        <v>2158</v>
       </c>
       <c r="C5" s="2">
-        <v>2158</v>
-      </c>
-      <c r="D5" s="4">
         <v>776</v>
       </c>
-      <c r="E5" s="4">
+      <c r="D5" s="2">
         <v>246</v>
       </c>
-      <c r="F5" s="4">
-        <v>206</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="E5" s="3">
         <f>4.44*10^8</f>
         <v>444000000.00000006</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
+      <c r="B6" s="1">
+        <v>1982</v>
       </c>
       <c r="C6" s="2">
-        <v>1982</v>
-      </c>
-      <c r="D6" s="4">
         <v>732</v>
       </c>
-      <c r="E6" s="4">
+      <c r="D6" s="2">
         <v>254</v>
       </c>
-      <c r="F6" s="4">
-        <v>214</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="E6" s="3">
         <f>4.81*10^8</f>
         <v>480999999.99999994</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
+      <c r="B7" s="1">
+        <v>1110</v>
       </c>
       <c r="C7" s="2">
-        <v>1110</v>
-      </c>
-      <c r="D7" s="4">
         <v>528</v>
       </c>
-      <c r="E7" s="4">
+      <c r="D7" s="2">
         <v>272</v>
       </c>
-      <c r="F7" s="4">
-        <v>230</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="E7" s="3">
         <f>4.87*10^8</f>
         <v>487000000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
+      <c r="B8" s="1">
+        <v>2775</v>
       </c>
       <c r="C8" s="2">
-        <v>2775</v>
-      </c>
-      <c r="D8" s="4">
         <v>932</v>
       </c>
-      <c r="E8" s="4">
+      <c r="D8" s="2">
         <v>276</v>
       </c>
-      <c r="F8" s="4">
-        <v>234</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="E8" s="3">
         <f>4.94*10^8</f>
         <v>494000000.00000006</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
+      <c r="B9" s="1">
+        <v>3171</v>
       </c>
       <c r="C9" s="2">
-        <v>3171</v>
-      </c>
-      <c r="D9" s="4">
         <v>1202</v>
       </c>
-      <c r="E9" s="4">
+      <c r="D9" s="2">
         <v>524</v>
       </c>
-      <c r="F9" s="4">
-        <v>458</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="E9" s="3">
         <f>5.21*10^8</f>
         <v>521000000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F10" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F3">
-    <sortCondition ref="E2:E3"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D3">
+    <sortCondition ref="D2:D3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
